--- a/Pets.xlsx
+++ b/Pets.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -49,19 +49,28 @@
   <si>
     <t>Shy</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,7 +81,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -84,12 +100,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -403,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -427,7 +452,7 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -466,7 +491,7 @@
       <c r="U1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -497,7 +522,7 @@
       <c r="U2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -520,11 +545,17 @@
       <c r="U3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -543,7 +574,7 @@
       <c r="U4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -566,7 +597,7 @@
       <c r="U5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -589,7 +620,7 @@
       <c r="U6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -612,7 +643,7 @@
       <c r="U7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -635,7 +666,7 @@
       <c r="U8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -658,7 +689,7 @@
       <c r="U9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -681,7 +712,7 @@
       <c r="U10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -704,7 +735,7 @@
       <c r="U11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -727,7 +758,7 @@
       <c r="U12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="1"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -750,7 +781,7 @@
       <c r="U13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -773,7 +804,7 @@
       <c r="U14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="1"/>
+      <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -796,7 +827,7 @@
       <c r="U15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1"/>
+      <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -819,7 +850,7 @@
       <c r="U16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1"/>
+      <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -842,7 +873,7 @@
       <c r="U17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -865,7 +896,7 @@
       <c r="U18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -888,7 +919,7 @@
       <c r="U19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1"/>
+      <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -911,7 +942,7 @@
       <c r="U20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1"/>
+      <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -934,7 +965,7 @@
       <c r="U21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1"/>
+      <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -957,7 +988,7 @@
       <c r="U22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="1"/>
+      <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -980,7 +1011,7 @@
       <c r="U23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="1"/>
+      <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1003,7 +1034,7 @@
       <c r="U24" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="1"/>
+      <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1026,7 +1057,7 @@
       <c r="U25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1049,7 +1080,7 @@
       <c r="U26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="1"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1072,7 +1103,7 @@
       <c r="U27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="1"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1095,7 +1126,7 @@
       <c r="U28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="1"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1118,7 +1149,7 @@
       <c r="U29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="1"/>
+      <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1141,7 +1172,7 @@
       <c r="U30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="1"/>
+      <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1164,7 +1195,7 @@
       <c r="U31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="1"/>
+      <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1187,7 +1218,7 @@
       <c r="U32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="1"/>
+      <c r="A33" s="3"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1210,7 +1241,7 @@
       <c r="U33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="1"/>
+      <c r="A34" s="3"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1233,7 +1264,7 @@
       <c r="U34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="1"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1256,7 +1287,7 @@
       <c r="U35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1"/>
+      <c r="A36" s="3"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1279,7 +1310,7 @@
       <c r="U36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="1"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1302,7 +1333,7 @@
       <c r="U37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="1"/>
+      <c r="A38" s="3"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1325,7 +1356,7 @@
       <c r="U38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="1"/>
+      <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1348,7 +1379,7 @@
       <c r="U39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="1"/>
+      <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1371,7 +1402,7 @@
       <c r="U40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="1"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1394,7 +1425,7 @@
       <c r="U41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="1"/>
+      <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1417,7 +1448,7 @@
       <c r="U42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="1"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1440,7 +1471,7 @@
       <c r="U43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="1"/>
+      <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1463,7 +1494,7 @@
       <c r="U44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="1"/>
+      <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1486,7 +1517,7 @@
       <c r="U45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1509,7 +1540,7 @@
       <c r="U46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="1"/>
+      <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1532,7 +1563,7 @@
       <c r="U47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="1"/>
+      <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1555,7 +1586,7 @@
       <c r="U48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="1"/>
+      <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1578,7 +1609,7 @@
       <c r="U49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="1"/>
+      <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1601,7 +1632,7 @@
       <c r="U50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="1"/>
+      <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1624,7 +1655,7 @@
       <c r="U51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="1"/>
+      <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1647,7 +1678,7 @@
       <c r="U52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="1"/>
+      <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1670,7 +1701,7 @@
       <c r="U53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="1"/>
+      <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1693,7 +1724,7 @@
       <c r="U54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="1"/>
+      <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1716,7 +1747,7 @@
       <c r="U55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="1"/>
+      <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1739,7 +1770,7 @@
       <c r="U56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="1"/>
+      <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1762,7 +1793,7 @@
       <c r="U57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="1"/>
+      <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1785,7 +1816,7 @@
       <c r="U58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="1"/>
+      <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1808,7 +1839,7 @@
       <c r="U59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="1"/>
+      <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1831,7 +1862,7 @@
       <c r="U60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="1"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1854,7 +1885,7 @@
       <c r="U61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="1"/>
+      <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1877,7 +1908,7 @@
       <c r="U62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="1"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1900,7 +1931,7 @@
       <c r="U63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="1"/>
+      <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1923,7 +1954,7 @@
       <c r="U64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
-      <c r="A65" s="1"/>
+      <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1946,7 +1977,7 @@
       <c r="U65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="1"/>
+      <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1969,7 +2000,7 @@
       <c r="U66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="1"/>
+      <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1992,7 +2023,7 @@
       <c r="U67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="1"/>
+      <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2015,7 +2046,7 @@
       <c r="U68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="1"/>
+      <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2038,7 +2069,7 @@
       <c r="U69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="1"/>
+      <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2061,7 +2092,7 @@
       <c r="U70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="1"/>
+      <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2084,7 +2115,7 @@
       <c r="U71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="1"/>
+      <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2107,7 +2138,7 @@
       <c r="U72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="1"/>
+      <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2130,7 +2161,7 @@
       <c r="U73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="1"/>
+      <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2153,7 +2184,7 @@
       <c r="U74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="1"/>
+      <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2176,7 +2207,7 @@
       <c r="U75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="1"/>
+      <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2199,7 +2230,7 @@
       <c r="U76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
-      <c r="A77" s="1"/>
+      <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2222,7 +2253,7 @@
       <c r="U77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
-      <c r="A78" s="1"/>
+      <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2245,7 +2276,7 @@
       <c r="U78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
-      <c r="A79" s="1"/>
+      <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2268,7 +2299,7 @@
       <c r="U79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
-      <c r="A80" s="1"/>
+      <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2291,7 +2322,7 @@
       <c r="U80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
-      <c r="A81" s="1"/>
+      <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2314,7 +2345,7 @@
       <c r="U81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
-      <c r="A82" s="1"/>
+      <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2337,7 +2368,7 @@
       <c r="U82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
-      <c r="A83" s="1"/>
+      <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2360,7 +2391,7 @@
       <c r="U83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
-      <c r="A84" s="1"/>
+      <c r="A84" s="3"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2383,7 +2414,7 @@
       <c r="U84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
-      <c r="A85" s="1"/>
+      <c r="A85" s="3"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2406,7 +2437,7 @@
       <c r="U85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
-      <c r="A86" s="1"/>
+      <c r="A86" s="3"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2429,7 +2460,7 @@
       <c r="U86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
-      <c r="A87" s="1"/>
+      <c r="A87" s="3"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2452,7 +2483,7 @@
       <c r="U87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
-      <c r="A88" s="1"/>
+      <c r="A88" s="3"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2475,7 +2506,7 @@
       <c r="U88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
-      <c r="A89" s="1"/>
+      <c r="A89" s="3"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2498,7 +2529,7 @@
       <c r="U89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
-      <c r="A90" s="1"/>
+      <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2521,7 +2552,7 @@
       <c r="U90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
-      <c r="A91" s="1"/>
+      <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2544,7 +2575,7 @@
       <c r="U91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
-      <c r="A92" s="1"/>
+      <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2567,7 +2598,7 @@
       <c r="U92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
-      <c r="A93" s="1"/>
+      <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2590,7 +2621,7 @@
       <c r="U93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
-      <c r="A94" s="1"/>
+      <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2613,7 +2644,7 @@
       <c r="U94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
-      <c r="A95" s="1"/>
+      <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2636,7 +2667,7 @@
       <c r="U95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
-      <c r="A96" s="1"/>
+      <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2659,7 +2690,7 @@
       <c r="U96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
-      <c r="A97" s="1"/>
+      <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2682,7 +2713,7 @@
       <c r="U97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
-      <c r="A98" s="1"/>
+      <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2705,7 +2736,7 @@
       <c r="U98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
-      <c r="A99" s="1"/>
+      <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2728,7 +2759,7 @@
       <c r="U99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
-      <c r="A100" s="1"/>
+      <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2751,7 +2782,7 @@
       <c r="U100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
-      <c r="A101" s="1"/>
+      <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2774,7 +2805,7 @@
       <c r="U101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
-      <c r="A102" s="1"/>
+      <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2797,7 +2828,7 @@
       <c r="U102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
-      <c r="A103" s="1"/>
+      <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2820,7 +2851,7 @@
       <c r="U103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
-      <c r="A104" s="1"/>
+      <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2843,7 +2874,7 @@
       <c r="U104" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="1"/>
+      <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2866,7 +2897,7 @@
       <c r="U105" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
-      <c r="A106" s="1"/>
+      <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2889,7 +2920,7 @@
       <c r="U106" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
-      <c r="A107" s="1"/>
+      <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2912,7 +2943,7 @@
       <c r="U107" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
-      <c r="A108" s="1"/>
+      <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2935,7 +2966,7 @@
       <c r="U108" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
-      <c r="A109" s="1"/>
+      <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2958,7 +2989,7 @@
       <c r="U109" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
-      <c r="A110" s="1"/>
+      <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2981,7 +3012,7 @@
       <c r="U110" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
-      <c r="A111" s="1"/>
+      <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -3004,7 +3035,7 @@
       <c r="U111" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
-      <c r="A112" s="1"/>
+      <c r="A112" s="3"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -3027,7 +3058,7 @@
       <c r="U112" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
-      <c r="A113" s="1"/>
+      <c r="A113" s="3"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -3050,7 +3081,7 @@
       <c r="U113" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
-      <c r="A114" s="1"/>
+      <c r="A114" s="3"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3073,7 +3104,7 @@
       <c r="U114" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
-      <c r="A115" s="1"/>
+      <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -3096,7 +3127,7 @@
       <c r="U115" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
-      <c r="A116" s="1"/>
+      <c r="A116" s="3"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -3119,7 +3150,7 @@
       <c r="U116" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
-      <c r="A117" s="1"/>
+      <c r="A117" s="3"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -3142,7 +3173,7 @@
       <c r="U117" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
-      <c r="A118" s="1"/>
+      <c r="A118" s="3"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -3165,7 +3196,7 @@
       <c r="U118" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
-      <c r="A119" s="1"/>
+      <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -3188,7 +3219,7 @@
       <c r="U119" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
-      <c r="A120" s="1"/>
+      <c r="A120" s="3"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -3211,7 +3242,7 @@
       <c r="U120" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
-      <c r="A121" s="1"/>
+      <c r="A121" s="3"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -3234,7 +3265,7 @@
       <c r="U121" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
-      <c r="A122" s="1"/>
+      <c r="A122" s="3"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3257,7 +3288,7 @@
       <c r="U122" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
-      <c r="A123" s="1"/>
+      <c r="A123" s="3"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3280,7 +3311,7 @@
       <c r="U123" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
-      <c r="A124" s="1"/>
+      <c r="A124" s="3"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3303,7 +3334,7 @@
       <c r="U124" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
-      <c r="A125" s="1"/>
+      <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -3326,7 +3357,7 @@
       <c r="U125" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
-      <c r="A126" s="1"/>
+      <c r="A126" s="3"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3349,7 +3380,7 @@
       <c r="U126" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
-      <c r="A127" s="1"/>
+      <c r="A127" s="3"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -3372,7 +3403,7 @@
       <c r="U127" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
-      <c r="A128" s="1"/>
+      <c r="A128" s="3"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -3395,7 +3426,7 @@
       <c r="U128" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
-      <c r="A129" s="1"/>
+      <c r="A129" s="3"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -3418,7 +3449,7 @@
       <c r="U129" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
-      <c r="A130" s="1"/>
+      <c r="A130" s="3"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -3441,7 +3472,7 @@
       <c r="U130" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
-      <c r="A131" s="1"/>
+      <c r="A131" s="3"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3464,7 +3495,7 @@
       <c r="U131" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
-      <c r="A132" s="1"/>
+      <c r="A132" s="3"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3487,7 +3518,7 @@
       <c r="U132" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
-      <c r="A133" s="1"/>
+      <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3510,7 +3541,7 @@
       <c r="U133" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
-      <c r="A134" s="1"/>
+      <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3533,7 +3564,7 @@
       <c r="U134" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
-      <c r="A135" s="1"/>
+      <c r="A135" s="3"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3556,7 +3587,7 @@
       <c r="U135" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
-      <c r="A136" s="1"/>
+      <c r="A136" s="3"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3579,7 +3610,7 @@
       <c r="U136" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
-      <c r="A137" s="1"/>
+      <c r="A137" s="3"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3602,7 +3633,7 @@
       <c r="U137" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
-      <c r="A138" s="1"/>
+      <c r="A138" s="3"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3625,7 +3656,7 @@
       <c r="U138" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
-      <c r="A139" s="1"/>
+      <c r="A139" s="3"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3648,7 +3679,7 @@
       <c r="U139" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
-      <c r="A140" s="1"/>
+      <c r="A140" s="3"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3671,7 +3702,7 @@
       <c r="U140" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
-      <c r="A141" s="1"/>
+      <c r="A141" s="3"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3694,7 +3725,7 @@
       <c r="U141" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
-      <c r="A142" s="1"/>
+      <c r="A142" s="3"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3717,7 +3748,7 @@
       <c r="U142" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
-      <c r="A143" s="1"/>
+      <c r="A143" s="3"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3740,7 +3771,7 @@
       <c r="U143" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
-      <c r="A144" s="1"/>
+      <c r="A144" s="3"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3763,7 +3794,7 @@
       <c r="U144" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
-      <c r="A145" s="1"/>
+      <c r="A145" s="3"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3786,7 +3817,7 @@
       <c r="U145" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
-      <c r="A146" s="1"/>
+      <c r="A146" s="3"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3809,7 +3840,7 @@
       <c r="U146" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
-      <c r="A147" s="1"/>
+      <c r="A147" s="3"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3832,7 +3863,7 @@
       <c r="U147" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
-      <c r="A148" s="1"/>
+      <c r="A148" s="3"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3855,7 +3886,7 @@
       <c r="U148" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
-      <c r="A149" s="1"/>
+      <c r="A149" s="3"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3878,7 +3909,7 @@
       <c r="U149" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
-      <c r="A150" s="1"/>
+      <c r="A150" s="3"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3901,7 +3932,7 @@
       <c r="U150" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
-      <c r="A151" s="1"/>
+      <c r="A151" s="3"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3924,7 +3955,7 @@
       <c r="U151" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
-      <c r="A152" s="1"/>
+      <c r="A152" s="3"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3947,7 +3978,7 @@
       <c r="U152" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
-      <c r="A153" s="1"/>
+      <c r="A153" s="3"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3970,7 +4001,7 @@
       <c r="U153" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
-      <c r="A154" s="1"/>
+      <c r="A154" s="3"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3993,7 +4024,7 @@
       <c r="U154" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
-      <c r="A155" s="1"/>
+      <c r="A155" s="3"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -4016,7 +4047,7 @@
       <c r="U155" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
-      <c r="A156" s="1"/>
+      <c r="A156" s="3"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -4039,7 +4070,7 @@
       <c r="U156" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
-      <c r="A157" s="1"/>
+      <c r="A157" s="3"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -4062,7 +4093,7 @@
       <c r="U157" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
-      <c r="A158" s="1"/>
+      <c r="A158" s="3"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -4085,7 +4116,7 @@
       <c r="U158" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
-      <c r="A159" s="1"/>
+      <c r="A159" s="3"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -4108,7 +4139,7 @@
       <c r="U159" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
-      <c r="A160" s="1"/>
+      <c r="A160" s="3"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -4131,7 +4162,7 @@
       <c r="U160" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
-      <c r="A161" s="1"/>
+      <c r="A161" s="3"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -4154,7 +4185,7 @@
       <c r="U161" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
-      <c r="A162" s="1"/>
+      <c r="A162" s="3"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -4177,7 +4208,7 @@
       <c r="U162" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
-      <c r="A163" s="1"/>
+      <c r="A163" s="3"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -4200,7 +4231,7 @@
       <c r="U163" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
-      <c r="A164" s="1"/>
+      <c r="A164" s="3"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -4223,7 +4254,7 @@
       <c r="U164" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
-      <c r="A165" s="1"/>
+      <c r="A165" s="3"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -4246,7 +4277,7 @@
       <c r="U165" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
-      <c r="A166" s="1"/>
+      <c r="A166" s="3"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -4269,7 +4300,7 @@
       <c r="U166" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
-      <c r="A167" s="1"/>
+      <c r="A167" s="3"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -4292,7 +4323,7 @@
       <c r="U167" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
-      <c r="A168" s="1"/>
+      <c r="A168" s="3"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -4315,7 +4346,7 @@
       <c r="U168" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
-      <c r="A169" s="1"/>
+      <c r="A169" s="3"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -4338,7 +4369,7 @@
       <c r="U169" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
-      <c r="A170" s="1"/>
+      <c r="A170" s="3"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -4361,7 +4392,7 @@
       <c r="U170" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
-      <c r="A171" s="1"/>
+      <c r="A171" s="3"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4384,7 +4415,7 @@
       <c r="U171" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
-      <c r="A172" s="1"/>
+      <c r="A172" s="3"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4407,7 +4438,7 @@
       <c r="U172" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
-      <c r="A173" s="1"/>
+      <c r="A173" s="3"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4430,7 +4461,7 @@
       <c r="U173" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
-      <c r="A174" s="1"/>
+      <c r="A174" s="3"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -4453,7 +4484,7 @@
       <c r="U174" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
-      <c r="A175" s="1"/>
+      <c r="A175" s="3"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4476,7 +4507,7 @@
       <c r="U175" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
-      <c r="A176" s="1"/>
+      <c r="A176" s="3"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -4499,7 +4530,7 @@
       <c r="U176" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
-      <c r="A177" s="1"/>
+      <c r="A177" s="3"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -4522,7 +4553,7 @@
       <c r="U177" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
-      <c r="A178" s="1"/>
+      <c r="A178" s="3"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -4545,7 +4576,7 @@
       <c r="U178" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
-      <c r="A179" s="1"/>
+      <c r="A179" s="3"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -4568,7 +4599,7 @@
       <c r="U179" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
-      <c r="A180" s="1"/>
+      <c r="A180" s="3"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -4591,7 +4622,7 @@
       <c r="U180" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
-      <c r="A181" s="1"/>
+      <c r="A181" s="3"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -4614,7 +4645,7 @@
       <c r="U181" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
-      <c r="A182" s="1"/>
+      <c r="A182" s="3"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -4637,7 +4668,7 @@
       <c r="U182" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
-      <c r="A183" s="1"/>
+      <c r="A183" s="3"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4660,7 +4691,7 @@
       <c r="U183" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
-      <c r="A184" s="1"/>
+      <c r="A184" s="3"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4683,7 +4714,7 @@
       <c r="U184" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
-      <c r="A185" s="1"/>
+      <c r="A185" s="3"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4706,7 +4737,7 @@
       <c r="U185" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
-      <c r="A186" s="1"/>
+      <c r="A186" s="3"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -4729,7 +4760,7 @@
       <c r="U186" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
-      <c r="A187" s="1"/>
+      <c r="A187" s="3"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4752,7 +4783,7 @@
       <c r="U187" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
-      <c r="A188" s="1"/>
+      <c r="A188" s="3"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -4775,7 +4806,7 @@
       <c r="U188" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
-      <c r="A189" s="1"/>
+      <c r="A189" s="3"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -4798,7 +4829,7 @@
       <c r="U189" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
-      <c r="A190" s="1"/>
+      <c r="A190" s="3"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -4821,7 +4852,7 @@
       <c r="U190" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
-      <c r="A191" s="1"/>
+      <c r="A191" s="3"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -4844,7 +4875,7 @@
       <c r="U191" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
-      <c r="A192" s="1"/>
+      <c r="A192" s="3"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -4867,7 +4898,7 @@
       <c r="U192" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
-      <c r="A193" s="1"/>
+      <c r="A193" s="3"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -4890,7 +4921,7 @@
       <c r="U193" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
-      <c r="A194" s="1"/>
+      <c r="A194" s="3"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -4913,7 +4944,7 @@
       <c r="U194" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
-      <c r="A195" s="1"/>
+      <c r="A195" s="3"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -4936,7 +4967,7 @@
       <c r="U195" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
-      <c r="A196" s="1"/>
+      <c r="A196" s="3"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -4959,7 +4990,7 @@
       <c r="U196" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
-      <c r="A197" s="1"/>
+      <c r="A197" s="3"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -4982,7 +5013,7 @@
       <c r="U197" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
-      <c r="A198" s="1"/>
+      <c r="A198" s="3"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -5005,7 +5036,7 @@
       <c r="U198" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
-      <c r="A199" s="1"/>
+      <c r="A199" s="3"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -5028,7 +5059,7 @@
       <c r="U199" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
-      <c r="A200" s="1"/>
+      <c r="A200" s="3"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
